--- a/SQL list.xlsx
+++ b/SQL list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\1XXXXXXX\2 找工作\Python R JAVA Tableau SQL  SAP ESSBASE SPSS\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\1全部文件\2 找工作\Python R JAVA Tableau SQL  SAP ESSBASE SPSS\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D003A2E-18D7-4E73-84D7-8084A6653CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80A116-1F8B-4AB5-A1C1-44007F9A8BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1353">
   <si>
     <t xml:space="preserve">Import from Excel or text </t>
   </si>
@@ -10995,6 +10995,130 @@
   </si>
   <si>
     <t>remove first character from string with difference string length</t>
+  </si>
+  <si>
+    <t>declare function to get late week date</t>
+  </si>
+  <si>
+    <t>declare @today		dateTime
+declare @weekStart	dateTime
+declare @weekEnd	dateTime
+declare @yrStart    dateTime
+-- the current date is a variable, so you can reset the date if needed to test various date or 
+-- generate reprot for a differnt time window
+--
+-- so if today is a monday, it will pull last monday to sunday.  Tues to Sat will pull for same time frame
+select @today = getDate()
+select @weekStart = case when datepart(dw, @today) = 2 then dateadd(dd, -8, convert(date,  @today))  -- Monday
+                         when datepart(dw, @today) = 3 then dateadd(dd, -9, convert(date,  @today))  -- Tuesday
+                         when datepart(dw, @today) = 4 then dateadd(dd, -10, convert(date, @today))  -- Wednesday
+                         when datepart(dw, @today) = 5 then dateadd(dd, -11, convert(date, @today))  -- Thursday
+                         when datepart(dw, @today) = 6 then dateadd(dd, -12, convert(date, @today))  -- Friday
+                         when datepart(dw, @today) = 7 then dateadd(dd, -13, convert(date, @today))  -- Saturday
+						 when datepart(dw, @today) = 1 then dateadd(dd, -14, convert(date, @today))  -- Sunday, note if report is ran today there is no data for sunday so need to get back two weeks
+						 else @today
+					end
+select @weekEnd   = dateAdd(dd, 6, @weekStart)
+select @yrStart	  = convert(date, '01-01-'+convert(varChar(4), year(@weekEnd)))
+---------------------------------------------------------------------------------------------------
+if object_id('tempDB..#tmpIncomingDaily') is not null drop table #tmpIncomingDaily
+select	dt=convert(dateTime, [Date Dispute was Reported]), 
+		NumDisputedTrans=count(distinct workItemID), 
+		count(distinct disputeid2) as count_disputes,
+		count(workitemid) as count_trans,
+		AmtDisputes=sum([Disputed Amount]), 
+		dtWeekStart=@weekStart,
+		dtWeekEnd=@weekEnd
+into #tmpIncomingDaily
+from core.dbo.RegEDisputeLog
+where convert(dateTime, [Date Dispute was Reported]) &gt;= @weekStart
+      and convert(dateTime, [Date Dispute was Reported]) &lt;= @weekEnd
+group by convert(dateTime, [Date Dispute was Reported])
+order by 1
+select * from #tmpIncomingDaily</t>
+  </si>
+  <si>
+    <t>aggreate compare column to find complete ratio and MAX date</t>
+  </si>
+  <si>
+    <t>select	disputeID, 
+		dtDispute=min(dtDispute),
+		numTransaction=count(*), 
+		numCompleted=sum(case when [Date Investigation Completed] is not null then 1 else 0 end), 
+		maxDtInvestComplete=case when count(*) = sum(case when [Date Investigation Completed] is not null then 1 else 0 end) 
+							then max(convert(date,[Date Investigation Completed])) else null end,
+		amt=sum(amount)
+into #tmpDisputeComplete
+from #TmpRawData
+group by disputeID</t>
+  </si>
+  <si>
+    <t>create table #tmpSubReportDt ( dt dateTime, created int, closed int, endingCount int, dw int )
+declare @dt dateTime; set @dt = convert(date, getDate() - 100); while @dt &lt; getDate() begin  insert into #tmpSubReportDt select @dt, 0, 0, 0, datepart(dw, @dt); set @dt=@dt+1; end
+update #tmpSubReportDt
+set created = numDispute
+from (
+		select dt=dtDispute, numDispute=count(distinct disputeID)
+		from #tmpDisputeComplete
+		group by dtDispute ) disputeDt
+where #tmpSubReportDt.dt = disputeDt.dt</t>
+  </si>
+  <si>
+    <t>declare variable to populate table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST(date_trunc('month', di_date) AS DATE) </t>
+  </si>
+  <si>
+    <t>get the first day of the month first date</t>
+  </si>
+  <si>
+    <t>there's a situation where table 1 join with table 2 using row_number to dedupe, then table 2 fuzzy join table 3 using merchant name and amount, there're duplicates after the JOIN, I can use row_number again to Partition BY table 1's key to dedupe table 3, not using table 2 to partition</t>
+  </si>
+  <si>
+    <t>remove duplicate from fuzzy logic</t>
+  </si>
+  <si>
+    <t>insert one row into AWS</t>
+  </si>
+  <si>
+    <t>import psycopg2
+from pprint import pprint
+class DatabaseConnection:
+    def __init__(self):
+        try:
+            self.connection = psycopg2.connect(dbname= 'K', host='f', 
+                                               port= '8', user= 'ju', password= '6')
+            self.connection.autocommit = True
+            self.cursor = self.connection.cursor()
+        except:
+            pprint("Cannot connect to datase")
+    def create_table(self):
+        create_table_command = "CREATE TABLE pet(id serial PRIMARY KEY, name varchar(100), age integer NOT NULL)"
+        self.cursor.execute(create_table_command)
+    def insert_new_record(self):
+        new_record = "misa meo", "6"
+        insert_command = "INSERT INTO public.fraud_Rapid_test(city, zipcode) VALUES('" + new_record[0] + "','" + new_record[1] + "')"
+        pprint(insert_command)
+        self.cursor.execute(insert_command)
+    def query_all(self):
+        self.cursor.execute("SELECT * FROM pet")
+        cats = self.cursor.fetchall()
+        for cat in cats:
+            pprint("each pet : {0}".format(cat))
+    def update_record(self):
+        update_command = "UPDATE pet SET age=10 WHERE id=1"
+        self.cursor.execute(update_command)
+    def drop_table(self):
+        drop_table_command = "DROP TABLE pet"
+        self.cursor.execute(drop_table_command)
+if __name__== '__main__':
+    database_connection = DatabaseConnection()
+    # database_connection.create_table()
+    database_connection.insert_new_record()
+    # database_connection.query_all()
+    # database_connection.update_record()
+    #database_connection.drop_table()</t>
   </si>
 </sst>
 </file>
@@ -12317,6 +12441,13 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12326,13 +12457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13117,10 +13241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H784"/>
+  <dimension ref="A1:H787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A748" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A754" sqref="A754:B754"/>
+    <sheetView tabSelected="1" topLeftCell="A695" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A698" sqref="A698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14449,7 +14573,7 @@
       <c r="E130" s="57"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="250" t="s">
+      <c r="A131" s="253" t="s">
         <v>0</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -14460,7 +14584,7 @@
       <c r="E131" s="57"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="251"/>
+      <c r="A132" s="254"/>
       <c r="B132" s="12" t="s">
         <v>696</v>
       </c>
@@ -14469,7 +14593,7 @@
       <c r="E132" s="57"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="251"/>
+      <c r="A133" s="254"/>
       <c r="B133" s="12" t="s">
         <v>2</v>
       </c>
@@ -14478,7 +14602,7 @@
       <c r="E133" s="57"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="252"/>
+      <c r="A134" s="255"/>
       <c r="B134" s="12" t="s">
         <v>3</v>
       </c>
@@ -19491,350 +19615,398 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="189" t="s">
+    <row r="696" spans="1:3">
+      <c r="A696" s="165" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B696" s="165" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" ht="409.5">
+      <c r="A698" s="71" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B698" s="182" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="189" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="178.5">
-      <c r="A703" s="2" t="s">
+    <row r="706" spans="1:3" ht="178.5">
+      <c r="A706" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="C703" s="2" t="s">
+      <c r="C706" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="216.75">
-      <c r="A704" s="2" t="s">
+    <row r="707" spans="1:3" ht="216.75">
+      <c r="A707" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B707" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="C704" s="1"/>
-    </row>
-    <row r="705" spans="1:3" ht="25.5">
-      <c r="A705" s="125" t="s">
+      <c r="C707" s="1"/>
+    </row>
+    <row r="708" spans="1:3" ht="25.5">
+      <c r="A708" s="125" t="s">
         <v>1101</v>
       </c>
-      <c r="B705" s="127" t="s">
+      <c r="B708" s="127" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="25.5">
-      <c r="A706" s="127" t="s">
+    <row r="709" spans="1:3" ht="25.5">
+      <c r="A709" s="127" t="s">
         <v>1103</v>
       </c>
-      <c r="B706" s="127" t="s">
+      <c r="B709" s="127" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="63.75">
-      <c r="A707" s="125"/>
-      <c r="B707" s="127" t="s">
+    <row r="710" spans="1:3" ht="63.75">
+      <c r="A710" s="125"/>
+      <c r="B710" s="127" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="102">
-      <c r="A708" s="234" t="s">
+    <row r="711" spans="1:3" ht="102">
+      <c r="A711" s="234" t="s">
         <v>1145</v>
       </c>
-      <c r="B708" s="234" t="s">
+      <c r="B711" s="234" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="38.25">
-      <c r="A709" s="141" t="s">
+    <row r="712" spans="1:3" ht="38.25">
+      <c r="A712" s="141" t="s">
         <v>1151</v>
       </c>
-      <c r="B709" s="204" t="s">
+      <c r="B712" s="204" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="51">
-      <c r="A710" s="141" t="s">
+    <row r="713" spans="1:3" ht="51">
+      <c r="A713" s="141" t="s">
         <v>1149</v>
       </c>
-      <c r="B710" s="204" t="s">
+      <c r="B713" s="204" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="38.25">
-      <c r="A711" s="127" t="s">
+    <row r="714" spans="1:3" ht="38.25">
+      <c r="A714" s="127" t="s">
         <v>1155</v>
       </c>
-      <c r="B711" s="127" t="s">
+      <c r="B714" s="127" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="91.5">
-      <c r="A712" s="125" t="s">
+    <row r="715" spans="1:3" ht="91.5">
+      <c r="A715" s="125" t="s">
         <v>1153</v>
       </c>
-      <c r="B712" s="127" t="s">
+      <c r="B715" s="127" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
-      <c r="A713" s="234" t="s">
+    <row r="716" spans="1:3">
+      <c r="A716" s="234" t="s">
         <v>1161</v>
       </c>
-      <c r="B713" s="165" t="s">
+      <c r="B716" s="165" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
-      <c r="A714" s="165" t="s">
+    <row r="717" spans="1:3">
+      <c r="A717" s="165" t="s">
         <v>1159</v>
       </c>
-      <c r="B714" s="165" t="s">
+      <c r="B717" s="165" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="15">
-      <c r="A715" s="165" t="s">
+    <row r="718" spans="1:3" ht="15">
+      <c r="A718" s="165" t="s">
         <v>1157</v>
       </c>
-      <c r="B715" s="235" t="s">
+      <c r="B718" s="235" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="51">
-      <c r="A716" s="165" t="s">
+    <row r="719" spans="1:3" ht="51">
+      <c r="A719" s="165" t="s">
         <v>1163</v>
       </c>
-      <c r="B716" s="234" t="s">
+      <c r="B719" s="234" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="117">
-      <c r="A718" s="234" t="s">
+    <row r="721" spans="1:3" ht="117">
+      <c r="A721" s="234" t="s">
         <v>1168</v>
       </c>
-      <c r="B718" s="234" t="s">
+      <c r="B721" s="234" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="409.5">
-      <c r="A719" s="234" t="s">
+    <row r="722" spans="1:3" ht="409.5">
+      <c r="A722" s="234" t="s">
         <v>1172</v>
       </c>
-      <c r="B719" s="234" t="s">
+      <c r="B722" s="234" t="s">
         <v>1171</v>
       </c>
-      <c r="C719" s="181" t="s">
+      <c r="C722" s="181" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="102">
-      <c r="A720" s="125" t="s">
+    <row r="723" spans="1:3" ht="102">
+      <c r="A723" s="125" t="s">
         <v>1153</v>
       </c>
-      <c r="B720" s="234" t="s">
+      <c r="B723" s="234" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="89.25">
-      <c r="A721" s="10" t="s">
+    <row r="724" spans="1:3" ht="89.25">
+      <c r="A724" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="B721" s="182" t="s">
+      <c r="B724" s="182" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="51">
-      <c r="A722" s="125" t="s">
+    <row r="725" spans="1:3" ht="51">
+      <c r="A725" s="125" t="s">
         <v>1223</v>
       </c>
-      <c r="B722" s="127" t="s">
+      <c r="B725" s="127" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="255">
-      <c r="A723" s="125" t="s">
+    <row r="726" spans="1:3" ht="255">
+      <c r="A726" s="125" t="s">
         <v>1225</v>
       </c>
-      <c r="B723" s="127" t="s">
+      <c r="B726" s="127" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="165" t="s">
+    <row r="727" spans="1:3">
+      <c r="A727" s="165" t="s">
         <v>1235</v>
       </c>
-      <c r="B724" s="165" t="s">
+      <c r="B727" s="165" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="76.5">
-      <c r="A725" s="141" t="s">
+    <row r="728" spans="1:3" ht="76.5">
+      <c r="A728" s="141" t="s">
         <v>1237</v>
       </c>
-      <c r="B725" s="204" t="s">
+      <c r="B728" s="204" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="114.75">
-      <c r="A726" s="204" t="s">
+    <row r="729" spans="1:3" ht="114.75">
+      <c r="A729" s="204" t="s">
         <v>1239</v>
       </c>
-      <c r="B726" s="204" t="s">
+      <c r="B729" s="204" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="127.5">
-      <c r="A727" s="141" t="s">
+    <row r="730" spans="1:3" ht="127.5">
+      <c r="A730" s="141" t="s">
         <v>1241</v>
       </c>
-      <c r="B727" s="204" t="s">
+      <c r="B730" s="204" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="114.75">
-      <c r="A729" s="165" t="s">
+    <row r="732" spans="1:3" ht="114.75">
+      <c r="A732" s="165" t="s">
         <v>1270</v>
       </c>
-      <c r="B729" s="234" t="s">
+      <c r="B732" s="234" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="165" t="s">
+    <row r="733" spans="1:3">
+      <c r="A733" s="165" t="s">
         <v>1273</v>
       </c>
-      <c r="B730" s="234" t="s">
+      <c r="B733" s="234" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="63.75">
-      <c r="A731" s="137" t="s">
+    <row r="734" spans="1:3" ht="63.75">
+      <c r="A734" s="137" t="s">
         <v>1281</v>
       </c>
-      <c r="B731" s="136" t="s">
+      <c r="B734" s="136" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="204">
-      <c r="A732" s="137" t="s">
+    <row r="735" spans="1:3" ht="204">
+      <c r="A735" s="137" t="s">
         <v>1283</v>
       </c>
-      <c r="B732" s="136" t="s">
+      <c r="B735" s="136" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="165.75">
-      <c r="A733" s="136" t="s">
+    <row r="736" spans="1:3" ht="165.75">
+      <c r="A736" s="136" t="s">
         <v>1285</v>
       </c>
-      <c r="B733" s="136" t="s">
+      <c r="B736" s="136" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="51">
-      <c r="A735" s="245" t="s">
+    <row r="738" spans="1:3" ht="51">
+      <c r="A738" s="245" t="s">
         <v>1288</v>
       </c>
-      <c r="B735" s="245" t="s">
+      <c r="B738" s="245" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
-      <c r="A737" s="165" t="s">
+    <row r="740" spans="1:3">
+      <c r="A740" s="165" t="s">
         <v>1298</v>
       </c>
-      <c r="B737" s="234" t="s">
+      <c r="B740" s="234" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="63.75">
-      <c r="B739" s="234" t="s">
+    <row r="742" spans="1:3" ht="63.75">
+      <c r="B742" s="234" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="81.75">
-      <c r="A740" s="248" t="s">
+    <row r="743" spans="1:3" ht="81.75">
+      <c r="A743" s="248" t="s">
         <v>1306</v>
       </c>
-      <c r="B740" s="248" t="s">
+      <c r="B743" s="248" t="s">
         <v>1305</v>
       </c>
-      <c r="C740" s="249" t="s">
+      <c r="C743" s="249" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="51">
-      <c r="A741" s="247" t="s">
+    <row r="744" spans="1:3" ht="51">
+      <c r="A744" s="247" t="s">
         <v>1303</v>
       </c>
-      <c r="B741" s="248" t="s">
+      <c r="B744" s="248" t="s">
         <v>1302</v>
       </c>
-      <c r="C741" s="247"/>
-    </row>
-    <row r="743" spans="1:3" ht="63.75">
-      <c r="A743" s="253" t="s">
+      <c r="C744" s="247"/>
+    </row>
+    <row r="746" spans="1:3" ht="63.75">
+      <c r="A746" s="250" t="s">
         <v>1319</v>
       </c>
-      <c r="B743" s="72" t="s">
+      <c r="B746" s="72" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="114.75">
-      <c r="A745" t="s">
+    <row r="748" spans="1:3" ht="114.75">
+      <c r="A748" t="s">
         <v>1329</v>
       </c>
-      <c r="B745" s="225" t="s">
+      <c r="B748" s="225" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
-      <c r="A747" s="234" t="s">
+    <row r="750" spans="1:3">
+      <c r="A750" s="234" t="s">
         <v>1328</v>
       </c>
-      <c r="B747" s="234" t="s">
+      <c r="B750" s="234" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="25.5">
-      <c r="A749" s="137" t="s">
+    <row r="752" spans="1:3" ht="25.5">
+      <c r="A752" s="137" t="s">
         <v>1333</v>
       </c>
-      <c r="B749" s="254" t="s">
+      <c r="B752" s="251" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="89.25">
-      <c r="A750" s="136" t="s">
+    <row r="753" spans="1:3" ht="89.25">
+      <c r="A753" s="136" t="s">
         <v>1331</v>
       </c>
-      <c r="B750" s="136" t="s">
+      <c r="B753" s="136" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="76.5">
-      <c r="A752" s="165" t="s">
+    <row r="755" spans="1:3" ht="76.5">
+      <c r="A755" s="165" t="s">
         <v>1338</v>
       </c>
-      <c r="B752" s="234" t="s">
+      <c r="B755" s="234" t="s">
         <v>1337</v>
       </c>
-      <c r="C752" s="255" t="s">
+      <c r="C755" s="252" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="25.5">
-      <c r="A754" s="165" t="s">
+    <row r="757" spans="1:3" ht="25.5">
+      <c r="A757" s="165" t="s">
         <v>1340</v>
       </c>
-      <c r="B754" s="182" t="s">
+      <c r="B757" s="182" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="784" spans="1:1" ht="15">
-      <c r="A784" s="201" t="s">
+    <row r="759" spans="1:3" ht="409.5">
+      <c r="A759" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B759" s="182" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" ht="140.25">
+      <c r="A761" s="165" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B761" s="234" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" ht="140.25">
+      <c r="A763" s="10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B763" s="182" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" ht="38.25">
+      <c r="A765" s="182" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B765" s="182" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" ht="15">
+      <c r="A787" s="201" t="s">
         <v>905</v>
       </c>
     </row>
@@ -19902,11 +20074,11 @@
     <hyperlink ref="C329" r:id="rId56" xr:uid="{57249D55-9F65-478E-886A-0385C7ED3233}"/>
     <hyperlink ref="C332" r:id="rId57" xr:uid="{8B0022B5-995B-48BD-A80D-9D3D7F40A2A3}"/>
     <hyperlink ref="C331" r:id="rId58" xr:uid="{E9CF19BB-A751-42B4-B367-88751AA97987}"/>
-    <hyperlink ref="C719" r:id="rId59" location="51253468" xr:uid="{2C57476E-BAFB-4478-B9B7-A92726C2F743}"/>
+    <hyperlink ref="C722" r:id="rId59" location="51253468" xr:uid="{2C57476E-BAFB-4478-B9B7-A92726C2F743}"/>
     <hyperlink ref="B235" r:id="rId60" location="comment91337288_52193469" xr:uid="{939CC286-80E5-48A3-B522-5B7A667123BA}"/>
     <hyperlink ref="B691" r:id="rId61" xr:uid="{D66286F8-2E81-470E-B61C-6C345194DB67}"/>
     <hyperlink ref="C691" r:id="rId62" xr:uid="{790F345C-340E-46F5-A4D0-ABD11EBB8D97}"/>
-    <hyperlink ref="C752" r:id="rId63" xr:uid="{E01B5A17-D5A5-4D35-905E-71F13C5C82D9}"/>
+    <hyperlink ref="C755" r:id="rId63" xr:uid="{E01B5A17-D5A5-4D35-905E-71F13C5C82D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId64"/>
@@ -19977,7 +20149,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="63.75">
-      <c r="A13" s="253" t="s">
+      <c r="A13" s="250" t="s">
         <v>1319</v>
       </c>
       <c r="B13" s="72" t="s">
